--- a/Данные для GraphQl .xlsx
+++ b/Данные для GraphQl .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/react/realan-soft/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B22D35-7605-4B45-B8E8-199743DAE147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3988D9BB-4416-2745-9E53-2476D3110D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{72014408-5FEA-8046-B9AF-CA488E468AB4}"/>
   </bookViews>
@@ -3184,15 +3184,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3A83AC8-2805-7E40-95FE-C9B7AC26BF05}">
   <dimension ref="A1:G116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A93" sqref="A93:XFD105"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="G107" sqref="G107:G116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="3" max="3" width="30.1640625" customWidth="1"/>
     <col min="4" max="4" width="47.83203125" customWidth="1"/>
-    <col min="5" max="6" width="30.1640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="30.1640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3214,7 +3216,7 @@
       <c r="F1" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>213</v>
       </c>
     </row>
@@ -3237,9 +3239,9 @@
       <c r="F2" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G2" s="5" t="str">
-        <f>CONCATENATE("{",C2,": '",F2,"'}")</f>
-        <v>{id: 'number'}</v>
+      <c r="G2" s="7" t="str">
+        <f>CONCATENATE("{",C2,": '",F2,"'},")</f>
+        <v>{id: 'number'},</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1" ht="18">
@@ -3261,9 +3263,9 @@
       <c r="F3" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G3" s="5" t="str">
-        <f>CONCATENATE("{",C3,": '",F3,"'}")</f>
-        <v>{name: 'text'}</v>
+      <c r="G3" s="7" t="str">
+        <f t="shared" ref="G3:G66" si="0">CONCATENATE("{",C3,": '",F3,"'},")</f>
+        <v>{name: 'text'},</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18">
@@ -3285,9 +3287,9 @@
       <c r="F4" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="G4" t="str">
-        <f t="shared" ref="G3:G66" si="0">CONCATENATE("{",C4,": '",F4,"'}")</f>
-        <v>{id: 'number'}</v>
+      <c r="G4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>{id: 'number'},</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18">
@@ -3309,9 +3311,9 @@
       <c r="F5" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="G5" t="str">
-        <f t="shared" si="0"/>
-        <v>{name: 'text'}</v>
+      <c r="G5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>{name: 'text'},</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="18">
@@ -3333,9 +3335,9 @@
       <c r="F6" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="G6" t="str">
-        <f t="shared" si="0"/>
-        <v>{discount: 'number'}</v>
+      <c r="G6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>{discount: 'number'},</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18">
@@ -3357,9 +3359,9 @@
       <c r="F7" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="G7" t="str">
-        <f t="shared" si="0"/>
-        <v>{date_start: 'text'}</v>
+      <c r="G7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>{date_start: 'text'},</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18">
@@ -3381,9 +3383,9 @@
       <c r="F8" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="G8" t="str">
-        <f t="shared" si="0"/>
-        <v>{type: 'text'}</v>
+      <c r="G8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>{type: 'text'},</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18">
@@ -3405,9 +3407,9 @@
       <c r="F9" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="G9" t="str">
-        <f t="shared" si="0"/>
-        <v>{tags: 'text'}</v>
+      <c r="G9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>{tags: 'text'},</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18">
@@ -3429,9 +3431,9 @@
       <c r="F10" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="G10" t="str">
-        <f t="shared" si="0"/>
-        <v>{dealer: 'text'}</v>
+      <c r="G10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>{dealer: 'text'},</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18">
@@ -3453,9 +3455,9 @@
       <c r="F11" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="G11" t="str">
-        <f t="shared" si="0"/>
-        <v>{saldo: 'number'}</v>
+      <c r="G11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>{saldo: 'number'},</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="18">
@@ -3477,9 +3479,9 @@
       <c r="F12" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="G12" t="str">
-        <f t="shared" si="0"/>
-        <v>{payment_term: 'text'}</v>
+      <c r="G12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>{payment_term: 'text'},</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="18">
@@ -3501,9 +3503,9 @@
       <c r="F13" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="G13" t="str">
-        <f t="shared" si="0"/>
-        <v>{price_type_id: 'number'}</v>
+      <c r="G13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>{price_type_id: 'number'},</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="5" customFormat="1" ht="18">
@@ -3525,9 +3527,9 @@
       <c r="F14" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G14" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{id: 'number'}</v>
+      <c r="G14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>{id: 'number'},</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="5" customFormat="1" ht="18">
@@ -3549,9 +3551,9 @@
       <c r="F15" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G15" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{date: 'text'}</v>
+      <c r="G15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>{date: 'text'},</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="5" customFormat="1" ht="18">
@@ -3573,9 +3575,9 @@
       <c r="F16" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G16" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{sum: 'number'}</v>
+      <c r="G16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>{sum: 'number'},</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="5" customFormat="1" ht="18">
@@ -3597,9 +3599,9 @@
       <c r="F17" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G17" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{our_firm_id: 'number'}</v>
+      <c r="G17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>{our_firm_id: 'number'},</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="5" customFormat="1" ht="18">
@@ -3621,9 +3623,9 @@
       <c r="F18" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G18" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{type_doc_id: 'number'}</v>
+      <c r="G18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>{type_doc_id: 'number'},</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="5" customFormat="1" ht="18">
@@ -3645,9 +3647,9 @@
       <c r="F19" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G19" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{number: 'number'}</v>
+      <c r="G19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>{number: 'number'},</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="5" customFormat="1" ht="18">
@@ -3669,9 +3671,9 @@
       <c r="F20" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G20" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{year: 'number'}</v>
+      <c r="G20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>{year: 'number'},</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="18">
@@ -3693,9 +3695,9 @@
       <c r="F21" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="G21" t="str">
-        <f t="shared" si="0"/>
-        <v>{id: 'number'}</v>
+      <c r="G21" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>{id: 'number'},</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="18">
@@ -3717,9 +3719,9 @@
       <c r="F22" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="G22" t="str">
-        <f t="shared" si="0"/>
-        <v>{name: 'text'}</v>
+      <c r="G22" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>{name: 'text'},</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="18">
@@ -3741,9 +3743,9 @@
       <c r="F23" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="G23" t="str">
-        <f t="shared" si="0"/>
-        <v>{customer_id: 'number'}</v>
+      <c r="G23" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>{customer_id: 'number'},</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="18">
@@ -3765,9 +3767,9 @@
       <c r="F24" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="G24" t="str">
-        <f t="shared" si="0"/>
-        <v>{address: 'text'}</v>
+      <c r="G24" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>{address: 'text'},</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="18">
@@ -3789,9 +3791,9 @@
       <c r="F25" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="G25" t="str">
-        <f t="shared" si="0"/>
-        <v>{inn: 'text'}</v>
+      <c r="G25" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>{inn: 'text'},</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="18">
@@ -3813,9 +3815,9 @@
       <c r="F26" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="G26" t="str">
-        <f t="shared" si="0"/>
-        <v>{kpp: 'text'}</v>
+      <c r="G26" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>{kpp: 'text'},</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="18">
@@ -3837,9 +3839,9 @@
       <c r="F27" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="G27" t="str">
-        <f t="shared" si="0"/>
-        <v>{ogrn: 'text'}</v>
+      <c r="G27" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>{ogrn: 'text'},</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="18">
@@ -3861,9 +3863,9 @@
       <c r="F28" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="G28" t="str">
-        <f t="shared" si="0"/>
-        <v>{okpo: 'text'}</v>
+      <c r="G28" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>{okpo: 'text'},</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="18">
@@ -3885,9 +3887,9 @@
       <c r="F29" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="G29" t="str">
-        <f t="shared" si="0"/>
-        <v>{address_mail: 'text'}</v>
+      <c r="G29" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>{address_mail: 'text'},</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="18">
@@ -3909,9 +3911,9 @@
       <c r="F30" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="G30" t="str">
-        <f t="shared" si="0"/>
-        <v>{email: 'text'}</v>
+      <c r="G30" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>{email: 'text'},</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="18">
@@ -3933,9 +3935,9 @@
       <c r="F31" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="G31" t="str">
-        <f t="shared" si="0"/>
-        <v>{site: 'text'}</v>
+      <c r="G31" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>{site: 'text'},</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="18">
@@ -3957,9 +3959,9 @@
       <c r="F32" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="G32" t="str">
-        <f t="shared" si="0"/>
-        <v>{management_name: 'text'}</v>
+      <c r="G32" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>{management_name: 'text'},</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="18">
@@ -3981,9 +3983,9 @@
       <c r="F33" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="G33" t="str">
-        <f t="shared" si="0"/>
-        <v>{management_post: 'text'}</v>
+      <c r="G33" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>{management_post: 'text'},</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="18">
@@ -4005,9 +4007,9 @@
       <c r="F34" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="G34" t="str">
-        <f t="shared" si="0"/>
-        <v>{bank: 'text'}</v>
+      <c r="G34" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>{bank: 'text'},</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="18">
@@ -4029,9 +4031,9 @@
       <c r="F35" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="G35" t="str">
-        <f t="shared" si="0"/>
-        <v>{bic: 'text'}</v>
+      <c r="G35" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>{bic: 'text'},</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="18">
@@ -4053,9 +4055,9 @@
       <c r="F36" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="G36" t="str">
-        <f t="shared" si="0"/>
-        <v>{account: 'text'}</v>
+      <c r="G36" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>{account: 'text'},</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="18">
@@ -4077,9 +4079,9 @@
       <c r="F37" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="G37" t="str">
-        <f t="shared" si="0"/>
-        <v>{corr_account: 'text'}</v>
+      <c r="G37" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>{corr_account: 'text'},</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="18">
@@ -4101,9 +4103,9 @@
       <c r="F38" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="G38" t="str">
-        <f t="shared" si="0"/>
-        <v>{accountant_name: 'text'}</v>
+      <c r="G38" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>{accountant_name: 'text'},</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="5" customFormat="1" ht="18">
@@ -4125,9 +4127,9 @@
       <c r="F39" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G39" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{id: 'number'}</v>
+      <c r="G39" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>{id: 'number'},</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="5" customFormat="1" ht="18">
@@ -4149,9 +4151,9 @@
       <c r="F40" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G40" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{item_id: 'number'}</v>
+      <c r="G40" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>{item_id: 'number'},</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="5" customFormat="1" ht="18">
@@ -4173,9 +4175,9 @@
       <c r="F41" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G41" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{qty: 'number'}</v>
+      <c r="G41" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>{qty: 'number'},</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="5" customFormat="1" ht="18">
@@ -4197,9 +4199,9 @@
       <c r="F42" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G42" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{order_id: 'number'}</v>
+      <c r="G42" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>{order_id: 'number'},</v>
       </c>
     </row>
     <row r="43" spans="1:7" s="5" customFormat="1" ht="18">
@@ -4221,9 +4223,9 @@
       <c r="F43" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G43" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{note: 'text'}</v>
+      <c r="G43" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>{note: 'text'},</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="5" customFormat="1" ht="18">
@@ -4245,9 +4247,9 @@
       <c r="F44" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="G44" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{is_cancelled: 'boolean'}</v>
+      <c r="G44" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>{is_cancelled: 'boolean'},</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="18">
@@ -4269,9 +4271,9 @@
       <c r="F45" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="G45" t="str">
-        <f t="shared" si="0"/>
-        <v>{id: 'number'}</v>
+      <c r="G45" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>{id: 'number'},</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="18">
@@ -4293,9 +4295,9 @@
       <c r="F46" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="G46" t="str">
-        <f t="shared" si="0"/>
-        <v>{item_id: 'number'}</v>
+      <c r="G46" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>{item_id: 'number'},</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="18">
@@ -4317,9 +4319,9 @@
       <c r="F47" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="G47" t="str">
-        <f t="shared" si="0"/>
-        <v>{qty: 'number'}</v>
+      <c r="G47" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>{qty: 'number'},</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="18">
@@ -4341,9 +4343,9 @@
       <c r="F48" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="G48" t="str">
-        <f t="shared" si="0"/>
-        <v>{from_order: 'number'}</v>
+      <c r="G48" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>{from_order: 'number'},</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="18">
@@ -4365,9 +4367,9 @@
       <c r="F49" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="G49" t="str">
-        <f t="shared" si="0"/>
-        <v>{to_order: 'number'}</v>
+      <c r="G49" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>{to_order: 'number'},</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="18">
@@ -4389,9 +4391,9 @@
       <c r="F50" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="G50" t="str">
-        <f t="shared" si="0"/>
-        <v>{created_at: 'text'}</v>
+      <c r="G50" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>{created_at: 'text'},</v>
       </c>
     </row>
     <row r="51" spans="1:7" s="5" customFormat="1" ht="18">
@@ -4413,9 +4415,9 @@
       <c r="F51" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G51" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{id: 'number'}</v>
+      <c r="G51" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>{id: 'number'},</v>
       </c>
     </row>
     <row r="52" spans="1:7" s="5" customFormat="1" ht="18">
@@ -4437,9 +4439,9 @@
       <c r="F52" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G52" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{date_in: 'text'}</v>
+      <c r="G52" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>{date_in: 'text'},</v>
       </c>
     </row>
     <row r="53" spans="1:7" s="5" customFormat="1" ht="18">
@@ -4461,9 +4463,9 @@
       <c r="F53" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G53" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{date_out: 'text'}</v>
+      <c r="G53" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>{date_out: 'text'},</v>
       </c>
     </row>
     <row r="54" spans="1:7" s="5" customFormat="1" ht="18">
@@ -4485,9 +4487,9 @@
       <c r="F54" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G54" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{customer_id: 'number'}</v>
+      <c r="G54" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>{customer_id: 'number'},</v>
       </c>
     </row>
     <row r="55" spans="1:7" s="5" customFormat="1" ht="18">
@@ -4509,9 +4511,9 @@
       <c r="F55" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G55" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{firm_id: 'number'}</v>
+      <c r="G55" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>{firm_id: 'number'},</v>
       </c>
     </row>
     <row r="56" spans="1:7" s="5" customFormat="1" ht="18">
@@ -4533,9 +4535,9 @@
       <c r="F56" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G56" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{person_id: 'number'}</v>
+      <c r="G56" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>{person_id: 'number'},</v>
       </c>
     </row>
     <row r="57" spans="1:7" s="5" customFormat="1" ht="18">
@@ -4557,9 +4559,9 @@
       <c r="F57" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G57" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{shop_id: 'number'}</v>
+      <c r="G57" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>{shop_id: 'number'},</v>
       </c>
     </row>
     <row r="58" spans="1:7" s="5" customFormat="1" ht="18">
@@ -4581,9 +4583,9 @@
       <c r="F58" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G58" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{bill_id: 'number'}</v>
+      <c r="G58" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>{bill_id: 'number'},</v>
       </c>
     </row>
     <row r="59" spans="1:7" s="5" customFormat="1" ht="18">
@@ -4605,9 +4607,9 @@
       <c r="F59" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G59" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{invoice_id: 'number'}</v>
+      <c r="G59" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>{invoice_id: 'number'},</v>
       </c>
     </row>
     <row r="60" spans="1:7" s="5" customFormat="1" ht="18">
@@ -4629,9 +4631,9 @@
       <c r="F60" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G60" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{our_firm_id: 'number'}</v>
+      <c r="G60" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>{our_firm_id: 'number'},</v>
       </c>
     </row>
     <row r="61" spans="1:7" s="5" customFormat="1" ht="18">
@@ -4653,9 +4655,9 @@
       <c r="F61" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G61" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{delivery_id: 'number'}</v>
+      <c r="G61" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>{delivery_id: 'number'},</v>
       </c>
     </row>
     <row r="62" spans="1:7" s="5" customFormat="1" ht="18">
@@ -4677,9 +4679,9 @@
       <c r="F62" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G62" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{packaging: 'text'}</v>
+      <c r="G62" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>{packaging: 'text'},</v>
       </c>
     </row>
     <row r="63" spans="1:7" s="5" customFormat="1" ht="18">
@@ -4701,9 +4703,9 @@
       <c r="F63" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G63" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{consignee_name: 'text'}</v>
+      <c r="G63" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>{consignee_name: 'text'},</v>
       </c>
     </row>
     <row r="64" spans="1:7" s="5" customFormat="1" ht="18">
@@ -4725,9 +4727,9 @@
       <c r="F64" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G64" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{price_type_id: 'number'}</v>
+      <c r="G64" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>{price_type_id: 'number'},</v>
       </c>
     </row>
     <row r="65" spans="1:7" s="5" customFormat="1" ht="18">
@@ -4749,9 +4751,9 @@
       <c r="F65" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G65" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{discount: 'number'}</v>
+      <c r="G65" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>{discount: 'number'},</v>
       </c>
     </row>
     <row r="66" spans="1:7" s="5" customFormat="1" ht="18">
@@ -4773,9 +4775,9 @@
       <c r="F66" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G66" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>{pay_till_date: 'text'}</v>
+      <c r="G66" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>{pay_till_date: 'text'},</v>
       </c>
     </row>
     <row r="67" spans="1:7" s="5" customFormat="1" ht="18">
@@ -4797,9 +4799,9 @@
       <c r="F67" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G67" s="5" t="str">
-        <f t="shared" ref="G67:G116" si="1">CONCATENATE("{",C67,": '",F67,"'}")</f>
-        <v>{payment_status: 'text'}</v>
+      <c r="G67" s="7" t="str">
+        <f t="shared" ref="G67:G116" si="1">CONCATENATE("{",C67,": '",F67,"'},")</f>
+        <v>{payment_status: 'text'},</v>
       </c>
     </row>
     <row r="68" spans="1:7" s="5" customFormat="1" ht="18">
@@ -4821,9 +4823,9 @@
       <c r="F68" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G68" s="5" t="str">
+      <c r="G68" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>{sum: 'number'}</v>
+        <v>{sum: 'number'},</v>
       </c>
     </row>
     <row r="69" spans="1:7" s="5" customFormat="1" ht="18">
@@ -4845,9 +4847,9 @@
       <c r="F69" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G69" s="5" t="str">
+      <c r="G69" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>{weigth: 'number'}</v>
+        <v>{weigth: 'number'},</v>
       </c>
     </row>
     <row r="70" spans="1:7" s="5" customFormat="1" ht="18">
@@ -4869,9 +4871,9 @@
       <c r="F70" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="G70" s="5" t="str">
+      <c r="G70" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>{is_shipped: 'boolean'}</v>
+        <v>{is_shipped: 'boolean'},</v>
       </c>
     </row>
     <row r="71" spans="1:7" s="5" customFormat="1" ht="18">
@@ -4893,9 +4895,9 @@
       <c r="F71" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G71" s="5" t="str">
+      <c r="G71" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>{note_order: 'text'}</v>
+        <v>{note_order: 'text'},</v>
       </c>
     </row>
     <row r="72" spans="1:7" s="5" customFormat="1" ht="18">
@@ -4917,9 +4919,9 @@
       <c r="F72" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G72" s="5" t="str">
+      <c r="G72" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>{note_supplier: 'text'}</v>
+        <v>{note_supplier: 'text'},</v>
       </c>
     </row>
     <row r="73" spans="1:7" s="5" customFormat="1" ht="18">
@@ -4941,9 +4943,9 @@
       <c r="F73" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G73" s="5" t="str">
+      <c r="G73" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>{delivery_note: 'text'}</v>
+        <v>{delivery_note: 'text'},</v>
       </c>
     </row>
     <row r="74" spans="1:7" s="5" customFormat="1" ht="18">
@@ -4965,9 +4967,9 @@
       <c r="F74" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G74" s="5" t="str">
+      <c r="G74" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>{city: 'text'}</v>
+        <v>{city: 'text'},</v>
       </c>
     </row>
     <row r="75" spans="1:7" s="5" customFormat="1" ht="18">
@@ -4989,9 +4991,9 @@
       <c r="F75" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G75" s="5" t="str">
+      <c r="G75" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>{consignee_data: 'text'}</v>
+        <v>{consignee_data: 'text'},</v>
       </c>
     </row>
     <row r="76" spans="1:7" s="5" customFormat="1" ht="18">
@@ -5013,9 +5015,9 @@
       <c r="F76" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="G76" s="5" t="str">
+      <c r="G76" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>{is_cancelled: 'boolean'}</v>
+        <v>{is_cancelled: 'boolean'},</v>
       </c>
     </row>
     <row r="77" spans="1:7" s="5" customFormat="1" ht="18">
@@ -5037,9 +5039,9 @@
       <c r="F77" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G77" s="5" t="str">
+      <c r="G77" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>{payment_ratio: 'number'}</v>
+        <v>{payment_ratio: 'number'},</v>
       </c>
     </row>
     <row r="78" spans="1:7" s="5" customFormat="1" ht="18">
@@ -5061,9 +5063,9 @@
       <c r="F78" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G78" s="5" t="str">
+      <c r="G78" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>{consignee_phone: 'text'}</v>
+        <v>{consignee_phone: 'text'},</v>
       </c>
     </row>
     <row r="79" spans="1:7" s="5" customFormat="1" ht="18">
@@ -5085,9 +5087,9 @@
       <c r="F79" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G79" s="5" t="str">
+      <c r="G79" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>{address: 'text'}</v>
+        <v>{address: 'text'},</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="18">
@@ -5109,9 +5111,9 @@
       <c r="F80" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="G80" t="str">
+      <c r="G80" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>{id: 'number'}</v>
+        <v>{id: 'number'},</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="18">
@@ -5133,9 +5135,9 @@
       <c r="F81" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="G81" t="str">
+      <c r="G81" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>{full_name: 'text'}</v>
+        <v>{full_name: 'text'},</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="18">
@@ -5157,9 +5159,9 @@
       <c r="F82" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="G82" t="str">
+      <c r="G82" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>{name: 'text'}</v>
+        <v>{name: 'text'},</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="18">
@@ -5181,9 +5183,9 @@
       <c r="F83" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="G83" t="str">
+      <c r="G83" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>{gender: 'text'}</v>
+        <v>{gender: 'text'},</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="18">
@@ -5205,9 +5207,9 @@
       <c r="F84" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="G84" t="str">
+      <c r="G84" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>{birthday: 'text'}</v>
+        <v>{birthday: 'text'},</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="18">
@@ -5229,9 +5231,9 @@
       <c r="F85" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="G85" t="str">
+      <c r="G85" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>{phone: 'text'}</v>
+        <v>{phone: 'text'},</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="18">
@@ -5253,9 +5255,9 @@
       <c r="F86" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="G86" t="str">
+      <c r="G86" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>{email: 'text'}</v>
+        <v>{email: 'text'},</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="18">
@@ -5277,9 +5279,9 @@
       <c r="F87" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="G87" t="str">
+      <c r="G87" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>{passport: 'text'}</v>
+        <v>{passport: 'text'},</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="18">
@@ -5301,9 +5303,9 @@
       <c r="F88" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="G88" t="str">
+      <c r="G88" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>{customer_id: 'number'}</v>
+        <v>{customer_id: 'number'},</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="18">
@@ -5325,9 +5327,9 @@
       <c r="F89" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="G89" t="str">
+      <c r="G89" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>{firm_id: 'number'}</v>
+        <v>{firm_id: 'number'},</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="18">
@@ -5349,9 +5351,9 @@
       <c r="F90" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="G90" t="str">
+      <c r="G90" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>{shop_id: 'number'}</v>
+        <v>{shop_id: 'number'},</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="18">
@@ -5373,9 +5375,9 @@
       <c r="F91" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="G91" t="str">
+      <c r="G91" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>{surname: 'text'}</v>
+        <v>{surname: 'text'},</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="18">
@@ -5397,9 +5399,9 @@
       <c r="F92" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="G92" t="str">
+      <c r="G92" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>{fio: 'text'}</v>
+        <v>{fio: 'text'},</v>
       </c>
     </row>
     <row r="93" spans="1:7" s="5" customFormat="1" ht="18">
@@ -5421,9 +5423,9 @@
       <c r="F93" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G93" s="5" t="str">
+      <c r="G93" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>{id: 'number'}</v>
+        <v>{id: 'number'},</v>
       </c>
     </row>
     <row r="94" spans="1:7" s="5" customFormat="1" ht="18">
@@ -5445,9 +5447,9 @@
       <c r="F94" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G94" s="5" t="str">
+      <c r="G94" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>{name: 'text'}</v>
+        <v>{name: 'text'},</v>
       </c>
     </row>
     <row r="95" spans="1:7" s="5" customFormat="1" ht="18">
@@ -5469,9 +5471,9 @@
       <c r="F95" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G95" s="5" t="str">
+      <c r="G95" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>{name_voice: 'text'}</v>
+        <v>{name_voice: 'text'},</v>
       </c>
     </row>
     <row r="96" spans="1:7" s="5" customFormat="1" ht="18">
@@ -5493,9 +5495,9 @@
       <c r="F96" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G96" s="5" t="str">
+      <c r="G96" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>{art: 'text'}</v>
+        <v>{art: 'text'},</v>
       </c>
     </row>
     <row r="97" spans="1:7" s="5" customFormat="1" ht="18">
@@ -5517,9 +5519,9 @@
       <c r="F97" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G97" s="5" t="str">
+      <c r="G97" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>{category_id: 'number'}</v>
+        <v>{category_id: 'number'},</v>
       </c>
     </row>
     <row r="98" spans="1:7" s="5" customFormat="1" ht="18">
@@ -5541,9 +5543,9 @@
       <c r="F98" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G98" s="5" t="str">
+      <c r="G98" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>{price_dealer: 'number'}</v>
+        <v>{price_dealer: 'number'},</v>
       </c>
     </row>
     <row r="99" spans="1:7" s="5" customFormat="1" ht="18">
@@ -5565,9 +5567,9 @@
       <c r="F99" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G99" s="5" t="str">
+      <c r="G99" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>{price_opt: 'number'}</v>
+        <v>{price_opt: 'number'},</v>
       </c>
     </row>
     <row r="100" spans="1:7" s="5" customFormat="1" ht="18">
@@ -5589,9 +5591,9 @@
       <c r="F100" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G100" s="5" t="str">
+      <c r="G100" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>{price_retail: 'number'}</v>
+        <v>{price_retail: 'number'},</v>
       </c>
     </row>
     <row r="101" spans="1:7" s="5" customFormat="1" ht="18">
@@ -5613,9 +5615,9 @@
       <c r="F101" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G101" s="5" t="str">
+      <c r="G101" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>{height: 'number'}</v>
+        <v>{height: 'number'},</v>
       </c>
     </row>
     <row r="102" spans="1:7" s="5" customFormat="1" ht="18">
@@ -5637,9 +5639,9 @@
       <c r="F102" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G102" s="5" t="str">
+      <c r="G102" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>{weight: 'number'}</v>
+        <v>{weight: 'number'},</v>
       </c>
     </row>
     <row r="103" spans="1:7" s="5" customFormat="1" ht="18">
@@ -5657,9 +5659,9 @@
       </c>
       <c r="E103" s="7"/>
       <c r="F103" s="7"/>
-      <c r="G103" s="5" t="str">
+      <c r="G103" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>{consist_of_ids: ''}</v>
+        <v>{consist_of_ids: ''},</v>
       </c>
     </row>
     <row r="104" spans="1:7" s="5" customFormat="1" ht="18">
@@ -5681,9 +5683,9 @@
       <c r="F104" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G104" s="5" t="str">
+      <c r="G104" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>{provider_id: 'number'}</v>
+        <v>{provider_id: 'number'},</v>
       </c>
     </row>
     <row r="105" spans="1:7" s="5" customFormat="1" ht="18">
@@ -5705,9 +5707,9 @@
       <c r="F105" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="G105" s="5" t="str">
+      <c r="G105" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>{is_on_sale: 'boolean'}</v>
+        <v>{is_on_sale: 'boolean'},</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="18">
@@ -5729,9 +5731,9 @@
       <c r="F106" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="G106" t="str">
+      <c r="G106" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>{id: 'number'}</v>
+        <v>{id: 'number'},</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="18">
@@ -5753,9 +5755,9 @@
       <c r="F107" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="G107" t="str">
+      <c r="G107" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>{name: 'text'}</v>
+        <v>{name: 'text'},</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="18">
@@ -5777,9 +5779,9 @@
       <c r="F108" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="G108" t="str">
+      <c r="G108" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>{city: 'text'}</v>
+        <v>{city: 'text'},</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="18">
@@ -5801,9 +5803,9 @@
       <c r="F109" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="G109" t="str">
+      <c r="G109" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>{address: 'text'}</v>
+        <v>{address: 'text'},</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="18">
@@ -5825,9 +5827,9 @@
       <c r="F110" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="G110" t="str">
+      <c r="G110" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>{customer_id: 'number'}</v>
+        <v>{customer_id: 'number'},</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="18">
@@ -5849,9 +5851,9 @@
       <c r="F111" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="G111" t="str">
+      <c r="G111" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>{email: 'text'}</v>
+        <v>{email: 'text'},</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="18">
@@ -5873,9 +5875,9 @@
       <c r="F112" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="G112" t="str">
+      <c r="G112" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>{consignee_name: 'text'}</v>
+        <v>{consignee_name: 'text'},</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="18">
@@ -5897,9 +5899,9 @@
       <c r="F113" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="G113" t="str">
+      <c r="G113" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>{consignee_phone: 'text'}</v>
+        <v>{consignee_phone: 'text'},</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="18">
@@ -5921,9 +5923,9 @@
       <c r="F114" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="G114" t="str">
+      <c r="G114" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>{consignee_data: 'text'}</v>
+        <v>{consignee_data: 'text'},</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="18">
@@ -5945,9 +5947,9 @@
       <c r="F115" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="G115" t="str">
+      <c r="G115" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>{delivery_note: 'text'}</v>
+        <v>{delivery_note: 'text'},</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="18">
@@ -5969,9 +5971,9 @@
       <c r="F116" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="G116" t="str">
+      <c r="G116" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>{delivery_id: 'number'}</v>
+        <v>{delivery_id: 'number'},</v>
       </c>
     </row>
   </sheetData>

--- a/Данные для GraphQl .xlsx
+++ b/Данные для GraphQl .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/react/realan-soft/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\realan-soft\realan-soft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3988D9BB-4416-2745-9E53-2476D3110D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F5EAA0B-C933-4BDD-94D0-057D6182A726}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{72014408-5FEA-8046-B9AF-CA488E468AB4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{72014408-5FEA-8046-B9AF-CA488E468AB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,19 +18,27 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'list of fields'!$A$1:$G$116</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'list of fields'!$A$1:$G$117</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="216">
   <si>
     <r>
       <t>const</t>
@@ -2504,13 +2512,38 @@
   </si>
   <si>
     <t>ss</t>
+  </si>
+  <si>
+    <r>
+      <t>waybill_number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4D4D4D"/>
+        <rFont val="Gudea"/>
+      </rPr>
+      <t> - </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF4D4D4D"/>
+        <rFont val="Gudea"/>
+      </rPr>
+      <t>text, nullable</t>
+    </r>
+  </si>
+  <si>
+    <t>waybill_number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2571,6 +2604,17 @@
       <color rgb="FF4D4D4D"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4D4D4D"/>
+      <name val="Gudea"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF4D4D4D"/>
+      <name val="Gudea"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2928,7 +2972,7 @@
       <selection activeCell="G3" sqref="G3:G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="26" customWidth="1"/>
     <col min="3" max="3" width="47.5" customWidth="1"/>
@@ -3182,19 +3226,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3A83AC8-2805-7E40-95FE-C9B7AC26BF05}">
-  <dimension ref="A1:G116"/>
+  <dimension ref="A1:G117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="G107" sqref="G107:G116"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="I96" sqref="I96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="3" max="3" width="30.1640625" customWidth="1"/>
-    <col min="4" max="4" width="47.83203125" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="30.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="30.125" customWidth="1"/>
+    <col min="4" max="4" width="47.875" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="17.875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="30.125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3220,7 +3264,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="5" customFormat="1" ht="18">
+    <row r="2" spans="1:7" s="5" customFormat="1" ht="18.75">
       <c r="A2" s="5">
         <v>2</v>
       </c>
@@ -3244,7 +3288,7 @@
         <v>{id: 'number'},</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="5" customFormat="1" ht="18">
+    <row r="3" spans="1:7" s="5" customFormat="1" ht="18.75">
       <c r="A3" s="5">
         <v>4</v>
       </c>
@@ -3268,7 +3312,7 @@
         <v>{name: 'text'},</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18">
+    <row r="4" spans="1:7" ht="18.75">
       <c r="A4">
         <v>8</v>
       </c>
@@ -3292,7 +3336,7 @@
         <v>{id: 'number'},</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18">
+    <row r="5" spans="1:7" ht="18.75">
       <c r="A5">
         <v>10</v>
       </c>
@@ -3316,7 +3360,7 @@
         <v>{name: 'text'},</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18">
+    <row r="6" spans="1:7" ht="18.75">
       <c r="A6">
         <v>12</v>
       </c>
@@ -3340,7 +3384,7 @@
         <v>{discount: 'number'},</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18">
+    <row r="7" spans="1:7" ht="18.75">
       <c r="A7">
         <v>14</v>
       </c>
@@ -3364,7 +3408,7 @@
         <v>{date_start: 'text'},</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18">
+    <row r="8" spans="1:7" ht="18.75">
       <c r="A8">
         <v>16</v>
       </c>
@@ -3388,7 +3432,7 @@
         <v>{type: 'text'},</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18">
+    <row r="9" spans="1:7" ht="18.75">
       <c r="A9">
         <v>18</v>
       </c>
@@ -3412,7 +3456,7 @@
         <v>{tags: 'text'},</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18">
+    <row r="10" spans="1:7" ht="18.75">
       <c r="A10">
         <v>20</v>
       </c>
@@ -3436,7 +3480,7 @@
         <v>{dealer: 'text'},</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18">
+    <row r="11" spans="1:7" ht="18.75">
       <c r="A11">
         <v>22</v>
       </c>
@@ -3460,7 +3504,7 @@
         <v>{saldo: 'number'},</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18">
+    <row r="12" spans="1:7" ht="18.75">
       <c r="A12">
         <v>24</v>
       </c>
@@ -3484,7 +3528,7 @@
         <v>{payment_term: 'text'},</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18">
+    <row r="13" spans="1:7" ht="18.75">
       <c r="A13">
         <v>26</v>
       </c>
@@ -3508,7 +3552,7 @@
         <v>{price_type_id: 'number'},</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="5" customFormat="1" ht="18">
+    <row r="14" spans="1:7" s="5" customFormat="1" ht="18.75">
       <c r="A14" s="5">
         <v>28</v>
       </c>
@@ -3532,7 +3576,7 @@
         <v>{id: 'number'},</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="5" customFormat="1" ht="18">
+    <row r="15" spans="1:7" s="5" customFormat="1" ht="18.75">
       <c r="A15" s="5">
         <v>30</v>
       </c>
@@ -3556,7 +3600,7 @@
         <v>{date: 'text'},</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="5" customFormat="1" ht="18">
+    <row r="16" spans="1:7" s="5" customFormat="1" ht="18.75">
       <c r="A16" s="5">
         <v>32</v>
       </c>
@@ -3580,7 +3624,7 @@
         <v>{sum: 'number'},</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="5" customFormat="1" ht="18">
+    <row r="17" spans="1:7" s="5" customFormat="1" ht="18.75">
       <c r="A17" s="5">
         <v>34</v>
       </c>
@@ -3604,7 +3648,7 @@
         <v>{our_firm_id: 'number'},</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="5" customFormat="1" ht="18">
+    <row r="18" spans="1:7" s="5" customFormat="1" ht="18.75">
       <c r="A18" s="5">
         <v>36</v>
       </c>
@@ -3628,7 +3672,7 @@
         <v>{type_doc_id: 'number'},</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="5" customFormat="1" ht="18">
+    <row r="19" spans="1:7" s="5" customFormat="1" ht="18.75">
       <c r="A19" s="5">
         <v>38</v>
       </c>
@@ -3652,7 +3696,7 @@
         <v>{number: 'number'},</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="5" customFormat="1" ht="18">
+    <row r="20" spans="1:7" s="5" customFormat="1" ht="18.75">
       <c r="A20" s="5">
         <v>40</v>
       </c>
@@ -3676,7 +3720,7 @@
         <v>{year: 'number'},</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="18">
+    <row r="21" spans="1:7" ht="18.75">
       <c r="A21">
         <v>43</v>
       </c>
@@ -3700,7 +3744,7 @@
         <v>{id: 'number'},</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="18">
+    <row r="22" spans="1:7" ht="18.75">
       <c r="A22">
         <v>45</v>
       </c>
@@ -3724,7 +3768,7 @@
         <v>{name: 'text'},</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="18">
+    <row r="23" spans="1:7" ht="18.75">
       <c r="A23">
         <v>47</v>
       </c>
@@ -3748,7 +3792,7 @@
         <v>{customer_id: 'number'},</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="18">
+    <row r="24" spans="1:7" ht="18.75">
       <c r="A24">
         <v>49</v>
       </c>
@@ -3772,7 +3816,7 @@
         <v>{address: 'text'},</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="18">
+    <row r="25" spans="1:7" ht="18.75">
       <c r="A25">
         <v>51</v>
       </c>
@@ -3796,7 +3840,7 @@
         <v>{inn: 'text'},</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="18">
+    <row r="26" spans="1:7" ht="18.75">
       <c r="A26">
         <v>53</v>
       </c>
@@ -3820,7 +3864,7 @@
         <v>{kpp: 'text'},</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="18">
+    <row r="27" spans="1:7" ht="18.75">
       <c r="A27">
         <v>55</v>
       </c>
@@ -3844,7 +3888,7 @@
         <v>{ogrn: 'text'},</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="18">
+    <row r="28" spans="1:7" ht="18.75">
       <c r="A28">
         <v>57</v>
       </c>
@@ -3868,7 +3912,7 @@
         <v>{okpo: 'text'},</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="18">
+    <row r="29" spans="1:7" ht="18.75">
       <c r="A29">
         <v>59</v>
       </c>
@@ -3892,7 +3936,7 @@
         <v>{address_mail: 'text'},</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="18">
+    <row r="30" spans="1:7" ht="18.75">
       <c r="A30">
         <v>61</v>
       </c>
@@ -3916,7 +3960,7 @@
         <v>{email: 'text'},</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="18">
+    <row r="31" spans="1:7" ht="18.75">
       <c r="A31">
         <v>63</v>
       </c>
@@ -3940,7 +3984,7 @@
         <v>{site: 'text'},</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="18">
+    <row r="32" spans="1:7" ht="18.75">
       <c r="A32">
         <v>65</v>
       </c>
@@ -3964,7 +4008,7 @@
         <v>{management_name: 'text'},</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="18">
+    <row r="33" spans="1:7" ht="18.75">
       <c r="A33">
         <v>67</v>
       </c>
@@ -3988,7 +4032,7 @@
         <v>{management_post: 'text'},</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="18">
+    <row r="34" spans="1:7" ht="18.75">
       <c r="A34">
         <v>69</v>
       </c>
@@ -4012,7 +4056,7 @@
         <v>{bank: 'text'},</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="18">
+    <row r="35" spans="1:7" ht="18.75">
       <c r="A35">
         <v>71</v>
       </c>
@@ -4036,7 +4080,7 @@
         <v>{bic: 'text'},</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="18">
+    <row r="36" spans="1:7" ht="18.75">
       <c r="A36">
         <v>73</v>
       </c>
@@ -4060,7 +4104,7 @@
         <v>{account: 'text'},</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="18">
+    <row r="37" spans="1:7" ht="18.75">
       <c r="A37">
         <v>75</v>
       </c>
@@ -4084,7 +4128,7 @@
         <v>{corr_account: 'text'},</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="18">
+    <row r="38" spans="1:7" ht="18.75">
       <c r="A38">
         <v>77</v>
       </c>
@@ -4108,7 +4152,7 @@
         <v>{accountant_name: 'text'},</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="5" customFormat="1" ht="18">
+    <row r="39" spans="1:7" s="5" customFormat="1" ht="18.75">
       <c r="A39" s="5">
         <v>79</v>
       </c>
@@ -4132,7 +4176,7 @@
         <v>{id: 'number'},</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="5" customFormat="1" ht="18">
+    <row r="40" spans="1:7" s="5" customFormat="1" ht="18.75">
       <c r="A40" s="5">
         <v>81</v>
       </c>
@@ -4156,7 +4200,7 @@
         <v>{item_id: 'number'},</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="5" customFormat="1" ht="18">
+    <row r="41" spans="1:7" s="5" customFormat="1" ht="18.75">
       <c r="A41" s="5">
         <v>83</v>
       </c>
@@ -4180,7 +4224,7 @@
         <v>{qty: 'number'},</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="5" customFormat="1" ht="18">
+    <row r="42" spans="1:7" s="5" customFormat="1" ht="18.75">
       <c r="A42" s="5">
         <v>85</v>
       </c>
@@ -4204,7 +4248,7 @@
         <v>{order_id: 'number'},</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="5" customFormat="1" ht="18">
+    <row r="43" spans="1:7" s="5" customFormat="1" ht="18.75">
       <c r="A43" s="5">
         <v>87</v>
       </c>
@@ -4228,7 +4272,7 @@
         <v>{note: 'text'},</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="5" customFormat="1" ht="18">
+    <row r="44" spans="1:7" s="5" customFormat="1" ht="18.75">
       <c r="A44" s="5">
         <v>89</v>
       </c>
@@ -4252,7 +4296,7 @@
         <v>{is_cancelled: 'boolean'},</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="18">
+    <row r="45" spans="1:7" ht="18.75">
       <c r="A45">
         <v>91</v>
       </c>
@@ -4276,7 +4320,7 @@
         <v>{id: 'number'},</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="18">
+    <row r="46" spans="1:7" ht="18.75">
       <c r="A46">
         <v>93</v>
       </c>
@@ -4300,7 +4344,7 @@
         <v>{item_id: 'number'},</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="18">
+    <row r="47" spans="1:7" ht="18.75">
       <c r="A47">
         <v>95</v>
       </c>
@@ -4324,7 +4368,7 @@
         <v>{qty: 'number'},</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="18">
+    <row r="48" spans="1:7" ht="18.75">
       <c r="A48">
         <v>97</v>
       </c>
@@ -4348,7 +4392,7 @@
         <v>{from_order: 'number'},</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="18">
+    <row r="49" spans="1:7" ht="18.75">
       <c r="A49">
         <v>99</v>
       </c>
@@ -4372,7 +4416,7 @@
         <v>{to_order: 'number'},</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="18">
+    <row r="50" spans="1:7" ht="18.75">
       <c r="A50">
         <v>101</v>
       </c>
@@ -4396,7 +4440,7 @@
         <v>{created_at: 'text'},</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="5" customFormat="1" ht="18">
+    <row r="51" spans="1:7" s="5" customFormat="1" ht="18.75">
       <c r="A51" s="5">
         <v>103</v>
       </c>
@@ -4420,7 +4464,7 @@
         <v>{id: 'number'},</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="5" customFormat="1" ht="18">
+    <row r="52" spans="1:7" s="5" customFormat="1" ht="18.75">
       <c r="A52" s="5">
         <v>105</v>
       </c>
@@ -4444,7 +4488,7 @@
         <v>{date_in: 'text'},</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="5" customFormat="1" ht="18">
+    <row r="53" spans="1:7" s="5" customFormat="1" ht="18.75">
       <c r="A53" s="5">
         <v>107</v>
       </c>
@@ -4468,7 +4512,7 @@
         <v>{date_out: 'text'},</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="5" customFormat="1" ht="18">
+    <row r="54" spans="1:7" s="5" customFormat="1" ht="18.75">
       <c r="A54" s="5">
         <v>109</v>
       </c>
@@ -4492,7 +4536,7 @@
         <v>{customer_id: 'number'},</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="5" customFormat="1" ht="18">
+    <row r="55" spans="1:7" s="5" customFormat="1" ht="18.75">
       <c r="A55" s="5">
         <v>111</v>
       </c>
@@ -4516,7 +4560,7 @@
         <v>{firm_id: 'number'},</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="5" customFormat="1" ht="18">
+    <row r="56" spans="1:7" s="5" customFormat="1" ht="18.75">
       <c r="A56" s="5">
         <v>113</v>
       </c>
@@ -4540,7 +4584,7 @@
         <v>{person_id: 'number'},</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="5" customFormat="1" ht="18">
+    <row r="57" spans="1:7" s="5" customFormat="1" ht="18.75">
       <c r="A57" s="5">
         <v>115</v>
       </c>
@@ -4564,7 +4608,7 @@
         <v>{shop_id: 'number'},</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="5" customFormat="1" ht="18">
+    <row r="58" spans="1:7" s="5" customFormat="1" ht="18.75">
       <c r="A58" s="5">
         <v>117</v>
       </c>
@@ -4588,7 +4632,7 @@
         <v>{bill_id: 'number'},</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="5" customFormat="1" ht="18">
+    <row r="59" spans="1:7" s="5" customFormat="1" ht="18.75">
       <c r="A59" s="5">
         <v>119</v>
       </c>
@@ -4612,7 +4656,7 @@
         <v>{invoice_id: 'number'},</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="5" customFormat="1" ht="18">
+    <row r="60" spans="1:7" s="5" customFormat="1" ht="18.75">
       <c r="A60" s="5">
         <v>121</v>
       </c>
@@ -4636,7 +4680,7 @@
         <v>{our_firm_id: 'number'},</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="5" customFormat="1" ht="18">
+    <row r="61" spans="1:7" s="5" customFormat="1" ht="18.75">
       <c r="A61" s="5">
         <v>123</v>
       </c>
@@ -4660,7 +4704,7 @@
         <v>{delivery_id: 'number'},</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="5" customFormat="1" ht="18">
+    <row r="62" spans="1:7" s="5" customFormat="1" ht="18.75">
       <c r="A62" s="5">
         <v>125</v>
       </c>
@@ -4684,7 +4728,7 @@
         <v>{packaging: 'text'},</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="5" customFormat="1" ht="18">
+    <row r="63" spans="1:7" s="5" customFormat="1" ht="18.75">
       <c r="A63" s="5">
         <v>127</v>
       </c>
@@ -4708,7 +4752,7 @@
         <v>{consignee_name: 'text'},</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="5" customFormat="1" ht="18">
+    <row r="64" spans="1:7" s="5" customFormat="1" ht="18.75">
       <c r="A64" s="5">
         <v>129</v>
       </c>
@@ -4732,7 +4776,7 @@
         <v>{price_type_id: 'number'},</v>
       </c>
     </row>
-    <row r="65" spans="1:7" s="5" customFormat="1" ht="18">
+    <row r="65" spans="1:7" s="5" customFormat="1" ht="18.75">
       <c r="A65" s="5">
         <v>131</v>
       </c>
@@ -4756,7 +4800,7 @@
         <v>{discount: 'number'},</v>
       </c>
     </row>
-    <row r="66" spans="1:7" s="5" customFormat="1" ht="18">
+    <row r="66" spans="1:7" s="5" customFormat="1" ht="18.75">
       <c r="A66" s="5">
         <v>133</v>
       </c>
@@ -4780,7 +4824,7 @@
         <v>{pay_till_date: 'text'},</v>
       </c>
     </row>
-    <row r="67" spans="1:7" s="5" customFormat="1" ht="18">
+    <row r="67" spans="1:7" s="5" customFormat="1" ht="18.75">
       <c r="A67" s="5">
         <v>135</v>
       </c>
@@ -4800,11 +4844,11 @@
         <v>210</v>
       </c>
       <c r="G67" s="7" t="str">
-        <f t="shared" ref="G67:G116" si="1">CONCATENATE("{",C67,": '",F67,"'},")</f>
+        <f t="shared" ref="G67:G117" si="1">CONCATENATE("{",C67,": '",F67,"'},")</f>
         <v>{payment_status: 'text'},</v>
       </c>
     </row>
-    <row r="68" spans="1:7" s="5" customFormat="1" ht="18">
+    <row r="68" spans="1:7" s="5" customFormat="1" ht="18.75">
       <c r="A68" s="5">
         <v>137</v>
       </c>
@@ -4828,7 +4872,7 @@
         <v>{sum: 'number'},</v>
       </c>
     </row>
-    <row r="69" spans="1:7" s="5" customFormat="1" ht="18">
+    <row r="69" spans="1:7" s="5" customFormat="1" ht="18.75">
       <c r="A69" s="5">
         <v>139</v>
       </c>
@@ -4852,7 +4896,7 @@
         <v>{weigth: 'number'},</v>
       </c>
     </row>
-    <row r="70" spans="1:7" s="5" customFormat="1" ht="18">
+    <row r="70" spans="1:7" s="5" customFormat="1" ht="18.75">
       <c r="A70" s="5">
         <v>141</v>
       </c>
@@ -4876,7 +4920,7 @@
         <v>{is_shipped: 'boolean'},</v>
       </c>
     </row>
-    <row r="71" spans="1:7" s="5" customFormat="1" ht="18">
+    <row r="71" spans="1:7" s="5" customFormat="1" ht="18.75">
       <c r="A71" s="5">
         <v>143</v>
       </c>
@@ -4900,7 +4944,7 @@
         <v>{note_order: 'text'},</v>
       </c>
     </row>
-    <row r="72" spans="1:7" s="5" customFormat="1" ht="18">
+    <row r="72" spans="1:7" s="5" customFormat="1" ht="18.75">
       <c r="A72" s="5">
         <v>145</v>
       </c>
@@ -4924,7 +4968,7 @@
         <v>{note_supplier: 'text'},</v>
       </c>
     </row>
-    <row r="73" spans="1:7" s="5" customFormat="1" ht="18">
+    <row r="73" spans="1:7" s="5" customFormat="1" ht="18.75">
       <c r="A73" s="5">
         <v>147</v>
       </c>
@@ -4948,7 +4992,7 @@
         <v>{delivery_note: 'text'},</v>
       </c>
     </row>
-    <row r="74" spans="1:7" s="5" customFormat="1" ht="18">
+    <row r="74" spans="1:7" s="5" customFormat="1" ht="18.75">
       <c r="A74" s="5">
         <v>149</v>
       </c>
@@ -4972,7 +5016,7 @@
         <v>{city: 'text'},</v>
       </c>
     </row>
-    <row r="75" spans="1:7" s="5" customFormat="1" ht="18">
+    <row r="75" spans="1:7" s="5" customFormat="1" ht="18.75">
       <c r="A75" s="5">
         <v>151</v>
       </c>
@@ -4996,7 +5040,7 @@
         <v>{consignee_data: 'text'},</v>
       </c>
     </row>
-    <row r="76" spans="1:7" s="5" customFormat="1" ht="18">
+    <row r="76" spans="1:7" s="5" customFormat="1" ht="18.75">
       <c r="A76" s="5">
         <v>153</v>
       </c>
@@ -5020,7 +5064,7 @@
         <v>{is_cancelled: 'boolean'},</v>
       </c>
     </row>
-    <row r="77" spans="1:7" s="5" customFormat="1" ht="18">
+    <row r="77" spans="1:7" s="5" customFormat="1" ht="18.75">
       <c r="A77" s="5">
         <v>155</v>
       </c>
@@ -5044,7 +5088,7 @@
         <v>{payment_ratio: 'number'},</v>
       </c>
     </row>
-    <row r="78" spans="1:7" s="5" customFormat="1" ht="18">
+    <row r="78" spans="1:7" s="5" customFormat="1" ht="18.75">
       <c r="A78" s="5">
         <v>157</v>
       </c>
@@ -5068,7 +5112,7 @@
         <v>{consignee_phone: 'text'},</v>
       </c>
     </row>
-    <row r="79" spans="1:7" s="5" customFormat="1" ht="18">
+    <row r="79" spans="1:7" s="5" customFormat="1" ht="18.75">
       <c r="A79" s="5">
         <v>159</v>
       </c>
@@ -5092,893 +5136,918 @@
         <v>{address: 'text'},</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="18">
-      <c r="A80">
+    <row r="80" spans="1:7" s="5" customFormat="1" ht="18">
+      <c r="A80" s="5">
         <v>161</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G80" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>{waybill_number: 'text'},</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="18.75">
+      <c r="A81">
+        <v>162</v>
+      </c>
+      <c r="B81" t="s">
         <v>106</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C81" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D81" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E80" s="4" t="s">
+      <c r="E81" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="F80" s="4" t="s">
+      <c r="F81" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="G80" s="4" t="str">
+      <c r="G81" s="4" t="str">
         <f t="shared" si="1"/>
         <v>{id: 'number'},</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="18">
-      <c r="A81">
+    <row r="82" spans="1:7" ht="18.75">
+      <c r="A82">
         <v>163</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B82" t="s">
         <v>106</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C82" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D82" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E81" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="G81" s="4" t="str">
+      <c r="E82" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="G82" s="4" t="str">
         <f t="shared" si="1"/>
         <v>{full_name: 'text'},</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="18">
-      <c r="A82">
-        <v>165</v>
-      </c>
-      <c r="B82" t="s">
+    <row r="83" spans="1:7" ht="18.75">
+      <c r="A83">
+        <v>164</v>
+      </c>
+      <c r="B83" t="s">
         <v>106</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C83" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="D83" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E82" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="F82" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="G82" s="4" t="str">
+      <c r="E83" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="G83" s="4" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'text'},</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="18">
-      <c r="A83">
-        <v>167</v>
-      </c>
-      <c r="B83" t="s">
+    <row r="84" spans="1:7" ht="18.75">
+      <c r="A84">
+        <v>165</v>
+      </c>
+      <c r="B84" t="s">
         <v>106</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C84" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="D84" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E83" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="F83" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="G83" s="4" t="str">
+      <c r="E84" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="G84" s="4" t="str">
         <f t="shared" si="1"/>
         <v>{gender: 'text'},</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="18">
-      <c r="A84">
-        <v>169</v>
-      </c>
-      <c r="B84" t="s">
+    <row r="85" spans="1:7" ht="18.75">
+      <c r="A85">
+        <v>166</v>
+      </c>
+      <c r="B85" t="s">
         <v>106</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C85" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="D85" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E84" s="4" t="s">
+      <c r="E85" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F84" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="G84" s="4" t="str">
+      <c r="F85" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="G85" s="4" t="str">
         <f t="shared" si="1"/>
         <v>{birthday: 'text'},</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="18">
-      <c r="A85">
-        <v>171</v>
-      </c>
-      <c r="B85" t="s">
+    <row r="86" spans="1:7" ht="18.75">
+      <c r="A86">
+        <v>167</v>
+      </c>
+      <c r="B86" t="s">
         <v>106</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C86" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="D86" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E85" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="F85" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="G85" s="4" t="str">
+      <c r="E86" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="G86" s="4" t="str">
         <f t="shared" si="1"/>
         <v>{phone: 'text'},</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="18">
-      <c r="A86">
-        <v>173</v>
-      </c>
-      <c r="B86" t="s">
+    <row r="87" spans="1:7" ht="18.75">
+      <c r="A87">
+        <v>168</v>
+      </c>
+      <c r="B87" t="s">
         <v>106</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C87" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="D87" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E86" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="G86" s="4" t="str">
+      <c r="E87" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="G87" s="4" t="str">
         <f t="shared" si="1"/>
         <v>{email: 'text'},</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="18">
-      <c r="A87">
-        <v>175</v>
-      </c>
-      <c r="B87" t="s">
+    <row r="88" spans="1:7" ht="18.75">
+      <c r="A88">
+        <v>169</v>
+      </c>
+      <c r="B88" t="s">
         <v>106</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C88" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="D88" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E87" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="G87" s="4" t="str">
+      <c r="E88" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="G88" s="4" t="str">
         <f t="shared" si="1"/>
         <v>{passport: 'text'},</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="18">
-      <c r="A88">
-        <v>177</v>
-      </c>
-      <c r="B88" t="s">
+    <row r="89" spans="1:7" ht="18.75">
+      <c r="A89">
+        <v>170</v>
+      </c>
+      <c r="B89" t="s">
         <v>106</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C89" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="D89" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E88" s="4" t="s">
+      <c r="E89" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="F88" s="4" t="s">
+      <c r="F89" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="G88" s="4" t="str">
+      <c r="G89" s="4" t="str">
         <f t="shared" si="1"/>
         <v>{customer_id: 'number'},</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="18">
-      <c r="A89">
-        <v>179</v>
-      </c>
-      <c r="B89" t="s">
+    <row r="90" spans="1:7" ht="18.75">
+      <c r="A90">
+        <v>171</v>
+      </c>
+      <c r="B90" t="s">
         <v>106</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C90" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="D90" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E89" s="4" t="s">
+      <c r="E90" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="F89" s="4" t="s">
+      <c r="F90" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="G89" s="4" t="str">
+      <c r="G90" s="4" t="str">
         <f t="shared" si="1"/>
         <v>{firm_id: 'number'},</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="18">
-      <c r="A90">
-        <v>181</v>
-      </c>
-      <c r="B90" t="s">
+    <row r="91" spans="1:7" ht="18.75">
+      <c r="A91">
+        <v>172</v>
+      </c>
+      <c r="B91" t="s">
         <v>106</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C91" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="D91" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E90" s="4" t="s">
+      <c r="E91" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="F90" s="4" t="s">
+      <c r="F91" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="G90" s="4" t="str">
+      <c r="G91" s="4" t="str">
         <f t="shared" si="1"/>
         <v>{shop_id: 'number'},</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="18">
-      <c r="A91">
-        <v>183</v>
-      </c>
-      <c r="B91" t="s">
+    <row r="92" spans="1:7" ht="18.75">
+      <c r="A92">
+        <v>173</v>
+      </c>
+      <c r="B92" t="s">
         <v>106</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C92" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="D92" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E91" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="G91" s="4" t="str">
+      <c r="E92" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="G92" s="4" t="str">
         <f t="shared" si="1"/>
         <v>{surname: 'text'},</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="18">
-      <c r="A92">
-        <v>185</v>
-      </c>
-      <c r="B92" t="s">
+    <row r="93" spans="1:7" ht="18.75">
+      <c r="A93">
+        <v>174</v>
+      </c>
+      <c r="B93" t="s">
         <v>106</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C93" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="D93" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E92" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="G92" s="4" t="str">
+      <c r="E93" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="G93" s="4" t="str">
         <f t="shared" si="1"/>
         <v>{fio: 'text'},</v>
       </c>
     </row>
-    <row r="93" spans="1:7" s="5" customFormat="1" ht="18">
-      <c r="A93" s="5">
-        <v>188</v>
-      </c>
-      <c r="B93" s="5" t="s">
+    <row r="94" spans="1:7" s="5" customFormat="1" ht="18.75">
+      <c r="A94">
+        <v>175</v>
+      </c>
+      <c r="B94" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C93" s="6" t="s">
+      <c r="C94" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D93" s="6" t="s">
+      <c r="D94" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="E93" s="7" t="s">
+      <c r="E94" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F93" s="7" t="s">
+      <c r="F94" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G93" s="7" t="str">
+      <c r="G94" s="7" t="str">
         <f t="shared" si="1"/>
         <v>{id: 'number'},</v>
       </c>
     </row>
-    <row r="94" spans="1:7" s="5" customFormat="1" ht="18">
-      <c r="A94" s="5">
-        <v>190</v>
-      </c>
-      <c r="B94" s="5" t="s">
+    <row r="95" spans="1:7" s="5" customFormat="1" ht="18.75">
+      <c r="A95">
+        <v>176</v>
+      </c>
+      <c r="B95" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C94" s="6" t="s">
+      <c r="C95" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="D94" s="6" t="s">
+      <c r="D95" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E94" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="F94" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G94" s="7" t="str">
+      <c r="E95" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F95" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G95" s="7" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'text'},</v>
       </c>
     </row>
-    <row r="95" spans="1:7" s="5" customFormat="1" ht="18">
-      <c r="A95" s="5">
-        <v>192</v>
-      </c>
-      <c r="B95" s="5" t="s">
+    <row r="96" spans="1:7" s="5" customFormat="1" ht="18.75">
+      <c r="A96">
+        <v>177</v>
+      </c>
+      <c r="B96" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C95" s="6" t="s">
+      <c r="C96" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="D95" s="6" t="s">
+      <c r="D96" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="E95" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="F95" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G95" s="7" t="str">
+      <c r="E96" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F96" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G96" s="7" t="str">
         <f t="shared" si="1"/>
         <v>{name_voice: 'text'},</v>
       </c>
     </row>
-    <row r="96" spans="1:7" s="5" customFormat="1" ht="18">
-      <c r="A96" s="5">
-        <v>194</v>
-      </c>
-      <c r="B96" s="5" t="s">
+    <row r="97" spans="1:7" s="5" customFormat="1" ht="18.75">
+      <c r="A97">
+        <v>178</v>
+      </c>
+      <c r="B97" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C96" s="6" t="s">
+      <c r="C97" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="D96" s="6" t="s">
+      <c r="D97" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="E96" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="F96" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G96" s="7" t="str">
+      <c r="E97" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G97" s="7" t="str">
         <f t="shared" si="1"/>
         <v>{art: 'text'},</v>
       </c>
     </row>
-    <row r="97" spans="1:7" s="5" customFormat="1" ht="18">
-      <c r="A97" s="5">
+    <row r="98" spans="1:7" s="5" customFormat="1" ht="18.75">
+      <c r="A98">
+        <v>179</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C98" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="B97" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="D97" s="6" t="s">
+      <c r="D98" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E97" s="7" t="s">
+      <c r="E98" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F97" s="7" t="s">
+      <c r="F98" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G97" s="7" t="str">
+      <c r="G98" s="7" t="str">
         <f t="shared" si="1"/>
         <v>{category_id: 'number'},</v>
       </c>
     </row>
-    <row r="98" spans="1:7" s="5" customFormat="1" ht="18">
-      <c r="A98" s="5">
-        <v>198</v>
-      </c>
-      <c r="B98" s="5" t="s">
+    <row r="99" spans="1:7" s="5" customFormat="1" ht="18.75">
+      <c r="A99">
+        <v>180</v>
+      </c>
+      <c r="B99" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C98" s="6" t="s">
+      <c r="C99" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="D98" s="6" t="s">
+      <c r="D99" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="E98" s="7" t="s">
+      <c r="E99" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="F98" s="7" t="s">
+      <c r="F99" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G98" s="7" t="str">
+      <c r="G99" s="7" t="str">
         <f t="shared" si="1"/>
         <v>{price_dealer: 'number'},</v>
       </c>
     </row>
-    <row r="99" spans="1:7" s="5" customFormat="1" ht="18">
-      <c r="A99" s="5">
-        <v>200</v>
-      </c>
-      <c r="B99" s="5" t="s">
+    <row r="100" spans="1:7" s="5" customFormat="1" ht="18.75">
+      <c r="A100">
+        <v>181</v>
+      </c>
+      <c r="B100" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C99" s="6" t="s">
+      <c r="C100" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="D99" s="6" t="s">
+      <c r="D100" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E99" s="7" t="s">
+      <c r="E100" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="F99" s="7" t="s">
+      <c r="F100" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G99" s="7" t="str">
+      <c r="G100" s="7" t="str">
         <f t="shared" si="1"/>
         <v>{price_opt: 'number'},</v>
       </c>
     </row>
-    <row r="100" spans="1:7" s="5" customFormat="1" ht="18">
-      <c r="A100" s="5">
-        <v>202</v>
-      </c>
-      <c r="B100" s="5" t="s">
+    <row r="101" spans="1:7" s="5" customFormat="1" ht="18.75">
+      <c r="A101">
+        <v>182</v>
+      </c>
+      <c r="B101" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C100" s="6" t="s">
+      <c r="C101" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="D100" s="6" t="s">
+      <c r="D101" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="E100" s="7" t="s">
+      <c r="E101" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="F100" s="7" t="s">
+      <c r="F101" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G100" s="7" t="str">
+      <c r="G101" s="7" t="str">
         <f t="shared" si="1"/>
         <v>{price_retail: 'number'},</v>
       </c>
     </row>
-    <row r="101" spans="1:7" s="5" customFormat="1" ht="18">
-      <c r="A101" s="5">
-        <v>204</v>
-      </c>
-      <c r="B101" s="5" t="s">
+    <row r="102" spans="1:7" s="5" customFormat="1" ht="18.75">
+      <c r="A102">
+        <v>183</v>
+      </c>
+      <c r="B102" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C101" s="6" t="s">
+      <c r="C102" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="D101" s="6" t="s">
+      <c r="D102" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E101" s="7" t="s">
+      <c r="E102" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="F101" s="7" t="s">
+      <c r="F102" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G101" s="7" t="str">
+      <c r="G102" s="7" t="str">
         <f t="shared" si="1"/>
         <v>{height: 'number'},</v>
       </c>
     </row>
-    <row r="102" spans="1:7" s="5" customFormat="1" ht="18">
-      <c r="A102" s="5">
-        <v>206</v>
-      </c>
-      <c r="B102" s="5" t="s">
+    <row r="103" spans="1:7" s="5" customFormat="1" ht="18.75">
+      <c r="A103">
+        <v>184</v>
+      </c>
+      <c r="B103" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C102" s="6" t="s">
+      <c r="C103" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="D102" s="6" t="s">
+      <c r="D103" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E102" s="7" t="s">
+      <c r="E103" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="F102" s="7" t="s">
+      <c r="F103" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G102" s="7" t="str">
+      <c r="G103" s="7" t="str">
         <f t="shared" si="1"/>
         <v>{weight: 'number'},</v>
       </c>
     </row>
-    <row r="103" spans="1:7" s="5" customFormat="1" ht="18">
-      <c r="A103" s="5">
-        <v>208</v>
-      </c>
-      <c r="B103" s="5" t="s">
+    <row r="104" spans="1:7" s="5" customFormat="1" ht="18.75">
+      <c r="A104">
+        <v>185</v>
+      </c>
+      <c r="B104" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C103" s="6" t="s">
+      <c r="C104" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="D103" s="6" t="s">
+      <c r="D104" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="E103" s="7"/>
-      <c r="F103" s="7"/>
-      <c r="G103" s="7" t="str">
+      <c r="E104" s="7"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="7" t="str">
         <f t="shared" si="1"/>
         <v>{consist_of_ids: ''},</v>
       </c>
     </row>
-    <row r="104" spans="1:7" s="5" customFormat="1" ht="18">
-      <c r="A104" s="5">
-        <v>210</v>
-      </c>
-      <c r="B104" s="5" t="s">
+    <row r="105" spans="1:7" s="5" customFormat="1" ht="18.75">
+      <c r="A105">
+        <v>186</v>
+      </c>
+      <c r="B105" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C104" s="6" t="s">
+      <c r="C105" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="D104" s="6" t="s">
+      <c r="D105" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="E104" s="7" t="s">
+      <c r="E105" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F104" s="7" t="s">
+      <c r="F105" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G104" s="7" t="str">
+      <c r="G105" s="7" t="str">
         <f t="shared" si="1"/>
         <v>{provider_id: 'number'},</v>
       </c>
     </row>
-    <row r="105" spans="1:7" s="5" customFormat="1" ht="18">
-      <c r="A105" s="5">
+    <row r="106" spans="1:7" s="5" customFormat="1" ht="18.75">
+      <c r="A106">
+        <v>187</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E106" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="B105" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C105" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="D105" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="E105" s="7" t="s">
+      <c r="F106" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F105" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G105" s="7" t="str">
+      <c r="G106" s="7" t="str">
         <f t="shared" si="1"/>
         <v>{is_on_sale: 'boolean'},</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="18">
-      <c r="A106">
-        <v>214</v>
-      </c>
-      <c r="B106" t="s">
+    <row r="107" spans="1:7" ht="18.75">
+      <c r="A107">
+        <v>188</v>
+      </c>
+      <c r="B107" t="s">
         <v>121</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C107" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D106" s="2" t="s">
+      <c r="D107" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E106" s="4" t="s">
+      <c r="E107" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="F106" s="4" t="s">
+      <c r="F107" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="G106" s="4" t="str">
+      <c r="G107" s="4" t="str">
         <f t="shared" si="1"/>
         <v>{id: 'number'},</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="18">
-      <c r="A107">
-        <v>216</v>
-      </c>
-      <c r="B107" t="s">
+    <row r="108" spans="1:7" ht="18.75">
+      <c r="A108">
+        <v>189</v>
+      </c>
+      <c r="B108" t="s">
         <v>121</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="C108" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D107" s="2" t="s">
+      <c r="D108" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E107" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="F107" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="G107" s="4" t="str">
+      <c r="E108" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="G108" s="4" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'text'},</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="18">
-      <c r="A108">
-        <v>218</v>
-      </c>
-      <c r="B108" t="s">
+    <row r="109" spans="1:7" ht="18.75">
+      <c r="A109">
+        <v>190</v>
+      </c>
+      <c r="B109" t="s">
         <v>121</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="C109" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D108" s="2" t="s">
+      <c r="D109" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E108" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="F108" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="G108" s="4" t="str">
+      <c r="E109" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="G109" s="4" t="str">
         <f t="shared" si="1"/>
         <v>{city: 'text'},</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="18">
-      <c r="A109">
-        <v>220</v>
-      </c>
-      <c r="B109" t="s">
+    <row r="110" spans="1:7" ht="18.75">
+      <c r="A110">
+        <v>191</v>
+      </c>
+      <c r="B110" t="s">
         <v>121</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="C110" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D109" s="2" t="s">
+      <c r="D110" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E109" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="F109" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="G109" s="4" t="str">
+      <c r="E110" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="G110" s="4" t="str">
         <f t="shared" si="1"/>
         <v>{address: 'text'},</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="18">
-      <c r="A110">
-        <v>222</v>
-      </c>
-      <c r="B110" t="s">
+    <row r="111" spans="1:7" ht="18.75">
+      <c r="A111">
+        <v>192</v>
+      </c>
+      <c r="B111" t="s">
         <v>121</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="C111" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D110" s="2" t="s">
+      <c r="D111" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E110" s="4" t="s">
+      <c r="E111" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="F110" s="4" t="s">
+      <c r="F111" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="G110" s="4" t="str">
+      <c r="G111" s="4" t="str">
         <f t="shared" si="1"/>
         <v>{customer_id: 'number'},</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="18">
-      <c r="A111">
-        <v>224</v>
-      </c>
-      <c r="B111" t="s">
+    <row r="112" spans="1:7" ht="18.75">
+      <c r="A112">
+        <v>193</v>
+      </c>
+      <c r="B112" t="s">
         <v>121</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="C112" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D111" s="2" t="s">
+      <c r="D112" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E111" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="F111" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="G111" s="4" t="str">
+      <c r="E112" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="G112" s="4" t="str">
         <f t="shared" si="1"/>
         <v>{email: 'text'},</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="18">
-      <c r="A112">
-        <v>226</v>
-      </c>
-      <c r="B112" t="s">
+    <row r="113" spans="1:7" ht="18.75">
+      <c r="A113">
+        <v>194</v>
+      </c>
+      <c r="B113" t="s">
         <v>121</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="C113" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D112" s="2" t="s">
+      <c r="D113" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E112" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="F112" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="G112" s="4" t="str">
+      <c r="E113" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="G113" s="4" t="str">
         <f t="shared" si="1"/>
         <v>{consignee_name: 'text'},</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="18">
-      <c r="A113">
-        <v>228</v>
-      </c>
-      <c r="B113" t="s">
+    <row r="114" spans="1:7" ht="18.75">
+      <c r="A114">
+        <v>195</v>
+      </c>
+      <c r="B114" t="s">
         <v>121</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="C114" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D113" s="2" t="s">
+      <c r="D114" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E113" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="F113" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="G113" s="4" t="str">
+      <c r="E114" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="G114" s="4" t="str">
         <f t="shared" si="1"/>
         <v>{consignee_phone: 'text'},</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="18">
-      <c r="A114">
-        <v>230</v>
-      </c>
-      <c r="B114" t="s">
+    <row r="115" spans="1:7" ht="18.75">
+      <c r="A115">
+        <v>196</v>
+      </c>
+      <c r="B115" t="s">
         <v>121</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="C115" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D114" s="2" t="s">
+      <c r="D115" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E114" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="F114" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="G114" s="4" t="str">
+      <c r="E115" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="G115" s="4" t="str">
         <f t="shared" si="1"/>
         <v>{consignee_data: 'text'},</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="18">
-      <c r="A115">
-        <v>232</v>
-      </c>
-      <c r="B115" t="s">
+    <row r="116" spans="1:7" ht="18.75">
+      <c r="A116">
+        <v>197</v>
+      </c>
+      <c r="B116" t="s">
         <v>121</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="C116" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D115" s="2" t="s">
+      <c r="D116" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E115" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="F115" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="G115" s="4" t="str">
+      <c r="E116" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="G116" s="4" t="str">
         <f t="shared" si="1"/>
         <v>{delivery_note: 'text'},</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="18">
-      <c r="A116">
-        <v>234</v>
-      </c>
-      <c r="B116" t="s">
+    <row r="117" spans="1:7" ht="18.75">
+      <c r="A117">
+        <v>198</v>
+      </c>
+      <c r="B117" t="s">
         <v>121</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="C117" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D116" s="2" t="s">
+      <c r="D117" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E116" s="4" t="s">
+      <c r="E117" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="F116" s="4" t="s">
+      <c r="F117" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="G116" s="4" t="str">
+      <c r="G117" s="4" t="str">
         <f t="shared" si="1"/>
         <v>{delivery_id: 'number'},</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G116" xr:uid="{B3361005-91F5-DF49-8BD0-7DC88A71CCEF}"/>
+  <autoFilter ref="A1:G117" xr:uid="{B3361005-91F5-DF49-8BD0-7DC88A71CCEF}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5990,7 +6059,7 @@
       <selection sqref="A1:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
